--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>0.2090633186231093</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.629113611453855</v>
+        <v>-1.627627737403347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0229280636705867</v>
+        <v>0.0227092750127259</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.230540957489827</v>
+        <v>-0.2294926607550407</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2033059580612664</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.654966088511658</v>
+        <v>-1.652713667149077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02544177220730389</v>
+        <v>0.02491919785903206</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2058713558016813</v>
+        <v>-0.2045885302178212</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2148832032638161</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.706682060761114</v>
+        <v>-1.705519647640033</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01480747074347599</v>
+        <v>-0.01498218686594037</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2154886126328285</v>
+        <v>-0.2144041134582523</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2467908635940046</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.819685615536654</v>
+        <v>-1.818400428924112</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01890306849710038</v>
+        <v>-0.0198569240846086</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2343028631897356</v>
+        <v>-0.2336181648719698</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2974219532734424</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.783151057712143</v>
+        <v>-1.782750469845772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004615925213374492</v>
+        <v>0.002808951262121303</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2291479505674759</v>
+        <v>-0.2285435272248964</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3615613131218834</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.600598681052372</v>
+        <v>-1.600570348708188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0668762515564232</v>
+        <v>0.06562490635498915</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.212491680225872</v>
+        <v>-0.2118117039654701</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.4314111925564671</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.340000927291587</v>
+        <v>-1.340218928939887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1060787717915381</v>
+        <v>0.1035257127767884</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2025328612454025</v>
+        <v>-0.2017883502010273</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4985159294670982</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9339118640916162</v>
+        <v>-0.9340070922484549</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2004664024194552</v>
+        <v>0.198915993584974</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1790768282997797</v>
+        <v>-0.1780426977370851</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.5548924481295406</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.497748017540953</v>
+        <v>-0.4967894398960809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2119299836798881</v>
+        <v>0.2101293058051201</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1324008652767291</v>
+        <v>-0.1312219249548749</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5936766208790547</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02750823103325124</v>
+        <v>-0.02508109354820558</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1873910255788103</v>
+        <v>0.1853400786637556</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06729628638149003</v>
+        <v>-0.0658403186942869</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6113806742747008</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5176800499543041</v>
+        <v>0.5220148986143662</v>
       </c>
       <c r="F12" t="n">
-        <v>0.147725743722033</v>
+        <v>0.1463862534498061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02520409531998749</v>
+        <v>0.02692607223869044</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6069510049615051</v>
       </c>
       <c r="E13" t="n">
-        <v>1.081296946814048</v>
+        <v>1.087081467084828</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02925247249997286</v>
+        <v>0.02739670395595935</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1305988416631602</v>
+        <v>0.1309026273535713</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5828028346723609</v>
       </c>
       <c r="E14" t="n">
-        <v>1.67947300750107</v>
+        <v>1.687609112339073</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.172760289566</v>
+        <v>-0.1756454666153442</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2498748626370838</v>
+        <v>0.2500086542623943</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5442697313112955</v>
       </c>
       <c r="E15" t="n">
-        <v>2.317416661287753</v>
+        <v>2.32629570315101</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4465986921751658</v>
+        <v>-0.4499403347696873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3734463817930369</v>
+        <v>0.3735707293036196</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4991224272603599</v>
       </c>
       <c r="E16" t="n">
-        <v>2.934512431812809</v>
+        <v>2.944416160124033</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6829911798885884</v>
+        <v>-0.6858873750717817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5208091999674499</v>
+        <v>0.5215001943617008</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4561525159810417</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530228300613238</v>
+        <v>3.540460998920814</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.926624155559994</v>
+        <v>-0.9300271849002462</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6828765047730538</v>
+        <v>0.6833817649109913</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4231774875754439</v>
       </c>
       <c r="E18" t="n">
-        <v>4.093472154941233</v>
+        <v>4.105525993372154</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.149720116746229</v>
+        <v>-1.152672976617789</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8162179606149204</v>
+        <v>0.8171970005083694</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.405326609833246</v>
       </c>
       <c r="E19" t="n">
-        <v>4.56516948315526</v>
+        <v>4.577697101341692</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.365573228945799</v>
+        <v>-1.367737505237587</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9916140593396986</v>
+        <v>0.9923003316765857</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4048139297557493</v>
       </c>
       <c r="E20" t="n">
-        <v>4.928158754775775</v>
+        <v>4.942104564190499</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.539625115340986</v>
+        <v>-1.541076360970826</v>
       </c>
       <c r="G20" t="n">
-        <v>1.12862770179156</v>
+        <v>1.128764641455113</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4209749406847517</v>
       </c>
       <c r="E21" t="n">
-        <v>5.267647920915271</v>
+        <v>5.280970418757961</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.752401807167974</v>
+        <v>-1.753925457677393</v>
       </c>
       <c r="G21" t="n">
-        <v>1.261350568118755</v>
+        <v>1.261265571086205</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.450967416372808</v>
       </c>
       <c r="E22" t="n">
-        <v>5.560251779488584</v>
+        <v>5.574639888276393</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.904037300247158</v>
+        <v>-1.905017914159728</v>
       </c>
       <c r="G22" t="n">
-        <v>1.368541270279332</v>
+        <v>1.368698672191462</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4906256782380534</v>
       </c>
       <c r="E23" t="n">
-        <v>5.722476486206318</v>
+        <v>5.73701255279153</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.031815385504787</v>
+        <v>-2.032756648939325</v>
       </c>
       <c r="G23" t="n">
-        <v>1.475650123445601</v>
+        <v>1.476660643721476</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5369873914822776</v>
       </c>
       <c r="E24" t="n">
-        <v>5.877932910702459</v>
+        <v>5.893687268087557</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.123226545974324</v>
+        <v>-2.124714781053514</v>
       </c>
       <c r="G24" t="n">
-        <v>1.518357984263852</v>
+        <v>1.518581494979077</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5883945657578799</v>
       </c>
       <c r="E25" t="n">
-        <v>5.974637497476931</v>
+        <v>5.989875576590243</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.157027819594696</v>
+        <v>-2.158017090612433</v>
       </c>
       <c r="G25" t="n">
-        <v>1.591260253886015</v>
+        <v>1.591360991109778</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6432500036082124</v>
       </c>
       <c r="E26" t="n">
-        <v>6.034777620063587</v>
+        <v>6.0489516622509</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.182187728239127</v>
+        <v>-2.182376610533683</v>
       </c>
       <c r="G26" t="n">
-        <v>1.659347599016119</v>
+        <v>1.659719067528746</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6981227258223324</v>
       </c>
       <c r="E27" t="n">
-        <v>6.024502423239737</v>
+        <v>6.038319163086514</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.182818122897208</v>
+        <v>-2.181982318743797</v>
       </c>
       <c r="G27" t="n">
-        <v>1.633848489251048</v>
+        <v>1.633922468149749</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7484331965991923</v>
       </c>
       <c r="E28" t="n">
-        <v>5.964568497157971</v>
+        <v>5.97879920403365</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.200835919778736</v>
+        <v>-2.199074592382001</v>
       </c>
       <c r="G28" t="n">
-        <v>1.629820574319639</v>
+        <v>1.628948567726439</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7916658937389248</v>
       </c>
       <c r="E29" t="n">
-        <v>5.865864906099446</v>
+        <v>5.879354249968993</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.156773615506606</v>
+        <v>-2.154012785967844</v>
       </c>
       <c r="G29" t="n">
-        <v>1.604455256179879</v>
+        <v>1.603271593800661</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8265468584435262</v>
       </c>
       <c r="E30" t="n">
-        <v>5.73618934079109</v>
+        <v>5.750215425181</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.158632532088862</v>
+        <v>-2.155827630014704</v>
       </c>
       <c r="G30" t="n">
-        <v>1.538859583318794</v>
+        <v>1.538023779165383</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8525176963118792</v>
       </c>
       <c r="E31" t="n">
-        <v>5.540420712579317</v>
+        <v>5.554161899508271</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.108682609293506</v>
+        <v>-2.104793208044772</v>
       </c>
       <c r="G31" t="n">
-        <v>1.477099795056319</v>
+        <v>1.475991685594923</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8696769825946116</v>
       </c>
       <c r="E32" t="n">
-        <v>5.36520877409173</v>
+        <v>5.37803545591121</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.034742274060845</v>
+        <v>-2.030348399683735</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43520570212378</v>
+        <v>1.43365686730842</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8780006782648943</v>
       </c>
       <c r="E33" t="n">
-        <v>5.105133594679218</v>
+        <v>5.11691040574479</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.999833677988639</v>
+        <v>-1.996311810204728</v>
       </c>
       <c r="G33" t="n">
-        <v>1.376176837036761</v>
+        <v>1.374629576240523</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8779673101380507</v>
       </c>
       <c r="E34" t="n">
-        <v>4.887832384888052</v>
+        <v>4.89806823123387</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.933550158771546</v>
+        <v>-1.929903943477052</v>
       </c>
       <c r="G34" t="n">
-        <v>1.280602395991383</v>
+        <v>1.279234573374973</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8698085009675558</v>
       </c>
       <c r="E35" t="n">
-        <v>4.603674712919638</v>
+        <v>4.612923649276401</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.896383632269833</v>
+        <v>-1.892825562046133</v>
       </c>
       <c r="G35" t="n">
-        <v>1.196839394432246</v>
+        <v>1.195301577750735</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8541511315355674</v>
       </c>
       <c r="E36" t="n">
-        <v>4.238259877833198</v>
+        <v>4.246098493057276</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.860277207646317</v>
+        <v>-1.856292578240744</v>
       </c>
       <c r="G36" t="n">
-        <v>1.14742149009989</v>
+        <v>1.146132368439545</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8313816001463376</v>
       </c>
       <c r="E37" t="n">
-        <v>3.929550655610737</v>
+        <v>3.936739200937717</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.820670951506588</v>
+        <v>-1.815867045148378</v>
       </c>
       <c r="G37" t="n">
-        <v>1.064464386330858</v>
+        <v>1.06353414103017</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8028884170843612</v>
       </c>
       <c r="E38" t="n">
-        <v>3.650472343346761</v>
+        <v>3.65625528959842</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.744195658479073</v>
+        <v>-1.739200508797625</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9899503211284838</v>
+        <v>0.9879056702899142</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7686700182059365</v>
       </c>
       <c r="E39" t="n">
-        <v>3.311405014331774</v>
+        <v>3.316402525041903</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.703001217045952</v>
+        <v>-1.698882009005508</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9058426093817815</v>
+        <v>0.9044228441343682</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7299197458208714</v>
       </c>
       <c r="E40" t="n">
-        <v>2.987202721898349</v>
+        <v>2.991279431422518</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.660914306771053</v>
+        <v>-1.657815850130773</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8460409009062044</v>
+        <v>0.8441520779606436</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6866663016851792</v>
       </c>
       <c r="E41" t="n">
-        <v>2.667629619700671</v>
+        <v>2.671064129423349</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.639719352293179</v>
+        <v>-1.637190690574809</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7906275577408137</v>
+        <v>0.789278623353859</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6404297151103779</v>
       </c>
       <c r="E42" t="n">
-        <v>2.332868807001562</v>
+        <v>2.336433960311308</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.587434372131373</v>
+        <v>-1.584993068474236</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7310887104584939</v>
+        <v>0.7293321051191224</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5924950276084354</v>
       </c>
       <c r="E43" t="n">
-        <v>2.078475836616945</v>
+        <v>2.081356291608925</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.534744082045833</v>
+        <v>-1.532205189203175</v>
       </c>
       <c r="G43" t="n">
-        <v>0.654855816375659</v>
+        <v>0.6532975374455714</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5449911107197269</v>
       </c>
       <c r="E44" t="n">
-        <v>1.824765990530972</v>
+        <v>1.827649593561195</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.513226453648092</v>
+        <v>-1.511545401226543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5673450752887047</v>
+        <v>0.566185023196306</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4991616710778023</v>
       </c>
       <c r="E45" t="n">
-        <v>1.599009150020178</v>
+        <v>1.601947843719647</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.430757295806663</v>
+        <v>-1.429697980938028</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5109810245740484</v>
+        <v>0.5103529909446494</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4570228912572898</v>
       </c>
       <c r="E46" t="n">
-        <v>1.389618960332669</v>
+        <v>1.391440100456014</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.370780084199061</v>
+        <v>-1.36918088077182</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4491220731069313</v>
+        <v>0.4479919273778374</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4193894575003108</v>
       </c>
       <c r="E47" t="n">
-        <v>1.235503600127876</v>
+        <v>1.238089713544173</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.322951939179219</v>
+        <v>-1.32139208623001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3856875284993923</v>
+        <v>0.3844519234891713</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3868451943680244</v>
       </c>
       <c r="E48" t="n">
-        <v>1.026368401538018</v>
+        <v>1.028809705195155</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.24292723303317</v>
+        <v>-1.24209142887976</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2991337910381888</v>
+        <v>0.2984821471219703</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3598135101017332</v>
       </c>
       <c r="E49" t="n">
-        <v>0.869704704375839</v>
+        <v>0.8717934277498051</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.171277882631563</v>
+        <v>-1.170853684478373</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2534872365204688</v>
+        <v>0.2528355926042504</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3379919454615949</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7689013718095004</v>
+        <v>0.7713788779064277</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.099296414195361</v>
+        <v>-1.098344919636535</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2157139256474949</v>
+        <v>0.215421158090933</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3210317211678932</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6342456100013478</v>
+        <v>0.6364004421784084</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.066190857026605</v>
+        <v>-1.06577374195946</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1745186972048133</v>
+        <v>0.1738481650591392</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3084051513260868</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4599261403555392</v>
+        <v>0.4627483566400314</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.029461120831053</v>
+        <v>-1.02890077002387</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1313858512238106</v>
+        <v>0.1309923464434854</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2993017082584731</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3979019168806857</v>
+        <v>0.4009444958421599</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.024252691558669</v>
+        <v>-1.024927945761707</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1035823774651552</v>
+        <v>0.10361228382846</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2933302755350532</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2417969965065686</v>
+        <v>0.2451024366613001</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9633279204400441</v>
+        <v>-0.9641967789950021</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05630513913776778</v>
+        <v>0.0563618038261346</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2896912140671774</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1230435498809169</v>
+        <v>0.1264387091255625</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9354079692664126</v>
+        <v>-0.9372188782654689</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02910294068344929</v>
+        <v>0.02921154800281904</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2874683179180311</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03329612762259433</v>
+        <v>0.03716821466099401</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9186391565576356</v>
+        <v>-0.9208207470597584</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.007579574938463236</v>
+        <v>-0.007297825515750414</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2858279510830767</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07981918251055831</v>
+        <v>-0.07584321021015276</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9193679274107979</v>
+        <v>-0.9213818848765021</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05142387756229389</v>
+        <v>-0.0507423272827707</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.28349748600276</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1322686476705398</v>
+        <v>-0.1292040324413674</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9001617460926868</v>
+        <v>-0.901827058323023</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08062665431978555</v>
+        <v>-0.08026935197925029</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2799492356988092</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2112560752156509</v>
+        <v>-0.2081489614702034</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9055448914875353</v>
+        <v>-0.9079562887813679</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.106624728146309</v>
+        <v>-0.1057700357634427</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2749927860236404</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3018282834935351</v>
+        <v>-0.2995805841883177</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9014170263419241</v>
+        <v>-0.9041369313835318</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1240648600103206</v>
+        <v>-0.1237248718801197</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2684157303268737</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3936691511831876</v>
+        <v>-0.3914245999162129</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8832355314717799</v>
+        <v>-0.8859727507237218</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1444169272487385</v>
+        <v>-0.1443586885412504</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2601272957455436</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5002727442115193</v>
+        <v>-0.4985838216943637</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8732861566060383</v>
+        <v>-0.8754276096205679</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1741784807942919</v>
+        <v>-0.1740242269204045</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2502253842732527</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5655331509997672</v>
+        <v>-0.5632996178666415</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8804880810955495</v>
+        <v>-0.8833701101066511</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1938600158870357</v>
+        <v>-0.194311759374849</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2385389970750681</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6838710565773954</v>
+        <v>-0.6824796236741656</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9008881559171671</v>
+        <v>-0.9041164691349548</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2305315133750992</v>
+        <v>-0.2310588097807349</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2256919598681515</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8038900145765729</v>
+        <v>-0.8031171711880143</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.936642787267073</v>
+        <v>-0.939255659008432</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2758459498582246</v>
+        <v>-0.2765495364054461</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2118718929032428</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9024653230767105</v>
+        <v>-0.9010880563455723</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9668293259753775</v>
+        <v>-0.9690117034870609</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3007154519747755</v>
+        <v>-0.3016771776578903</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1974541696995423</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9436015258023432</v>
+        <v>-0.9425209616755703</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.006853484191811</v>
+        <v>-1.008712400774068</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3388775455707107</v>
+        <v>-0.3404248063669493</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1826932664893294</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9907575646573905</v>
+        <v>-0.9888671676927084</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.014249013033243</v>
+        <v>-1.017165670465013</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3612821337433047</v>
+        <v>-0.3630167028149781</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1680709244001025</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.05231745249146</v>
+        <v>-1.052161624598452</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.061075294882377</v>
+        <v>-1.064278423794224</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3805229434820843</v>
+        <v>-0.3824589870012842</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1536558630202456</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.076580957246311</v>
+        <v>-1.076747016263608</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.101077416831113</v>
+        <v>-1.105508280657575</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3929403803300254</v>
+        <v>-0.3951172487747843</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1397481027584828</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.093827484758402</v>
+        <v>-1.094791571470199</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.110316909073148</v>
+        <v>-1.114174829939456</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4228152632523125</v>
+        <v>-0.424959077295524</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1263914064517451</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.112967557273419</v>
+        <v>-1.115919630135418</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.150596845396793</v>
+        <v>-1.155464499529416</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.398989335813184</v>
+        <v>-0.4015675791338745</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1139915421523151</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.085137325189701</v>
+        <v>-1.089568976025723</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.177958019782363</v>
+        <v>-1.181897789642979</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4045723816364375</v>
+        <v>-0.407281268544196</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1034055933986362</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.086561025484918</v>
+        <v>-1.091797000091924</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.200634126253382</v>
+        <v>-1.204917819292002</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4100389500447148</v>
+        <v>-0.4126486737478313</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.09531919781620377</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.042405067075069</v>
+        <v>-1.048114821437588</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.218053008859256</v>
+        <v>-1.221583533748333</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4161429961971189</v>
+        <v>-0.4191761310438653</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.09047680876177977</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9534013688515613</v>
+        <v>-0.9587648390073934</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.229164009836517</v>
+        <v>-1.234193000929073</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.389326432427519</v>
+        <v>-0.3922808663182004</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.08907110153358545</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.890365838091272</v>
+        <v>-0.8964124325457486</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.240612637915298</v>
+        <v>-1.244763326338168</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3719099108503269</v>
+        <v>-0.374977674117742</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.09096357365525919</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7440332154317504</v>
+        <v>-0.7496005210637908</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.227135099189161</v>
+        <v>-1.230947373500951</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3269763869945562</v>
+        <v>-0.3303951565260213</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.09577307063177552</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6308691107058374</v>
+        <v>-0.6363671594965407</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.248563795506548</v>
+        <v>-1.252339080368988</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3136507411136246</v>
+        <v>-0.3165264740482409</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1032106532613888</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4766640314111303</v>
+        <v>-0.4812145206908106</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.246776496794311</v>
+        <v>-1.249771855182147</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2903662762522235</v>
+        <v>-0.2935237586095527</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1121813330310715</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3322068525346384</v>
+        <v>-0.3368344687512624</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.267053798124467</v>
+        <v>-1.269490379724241</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2668567266564764</v>
+        <v>-0.2702629040349711</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1217761353082999</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1727949179866686</v>
+        <v>-0.1772525401381922</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.279589286406506</v>
+        <v>-1.281644955378925</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2417353814805175</v>
+        <v>-0.2452627583313523</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1311772341646168</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02146894794514096</v>
+        <v>0.01643051273785745</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.263102223120442</v>
+        <v>-1.26418829631414</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1796513452790544</v>
+        <v>-0.182193386159955</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1395995571968997</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1856548824880157</v>
+        <v>0.1800734106838835</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.263117176302094</v>
+        <v>-1.263255689984769</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1556569977939467</v>
+        <v>-0.158406809198859</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1462211839880083</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3541347411937987</v>
+        <v>0.3482951302537732</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.187996326728458</v>
+        <v>-1.187314776448935</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1115466859386163</v>
+        <v>-0.1141800199285523</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1504396712089873</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5524343921526232</v>
+        <v>0.5477375190946621</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119275438902031</v>
+        <v>-1.118326305371887</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06099706185804468</v>
+        <v>-0.06301652839067345</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1513285643986263</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7401723748075202</v>
+        <v>0.735439299309769</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.04100182902843</v>
+        <v>-1.039331007731169</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01677971670246576</v>
+        <v>-0.01850169362116871</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1481933451648261</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8929372266062372</v>
+        <v>0.8895011428644377</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9179780685266894</v>
+        <v>-0.9159326306785591</v>
       </c>
       <c r="G88" t="n">
-        <v>0.007773407570703672</v>
+        <v>0.005522560227243688</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1396453343291357</v>
       </c>
       <c r="E89" t="n">
-        <v>1.031194344163926</v>
+        <v>1.028180097546635</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8160304240591651</v>
+        <v>-0.8134883831782644</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04333679559737141</v>
+        <v>0.04096160074332868</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1248437856762123</v>
       </c>
       <c r="E90" t="n">
-        <v>1.127491259985981</v>
+        <v>1.12534901996189</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6721729464678887</v>
+        <v>-0.6692625851126037</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06012843158340715</v>
+        <v>0.05807433663010975</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1029393441933585</v>
       </c>
       <c r="E91" t="n">
-        <v>1.225310252298333</v>
+        <v>1.223994372312926</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4994778645552625</v>
+        <v>-0.4965879654485544</v>
       </c>
       <c r="G91" t="n">
-        <v>0.033922587232872</v>
+        <v>0.0318590481648468</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07433440955676872</v>
       </c>
       <c r="E92" t="n">
-        <v>1.259620721104445</v>
+        <v>1.258699919918485</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3539409085615583</v>
+        <v>-0.3498516068844191</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06056758291825004</v>
+        <v>0.05865987174323361</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04005626468815552</v>
       </c>
       <c r="E93" t="n">
-        <v>1.287391140461553</v>
+        <v>1.286216922197063</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2458955140181152</v>
+        <v>-0.2424531341998306</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04500840390419274</v>
+        <v>0.04433944577763995</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.001597573122406722</v>
       </c>
       <c r="E94" t="n">
-        <v>1.236595969398059</v>
+        <v>1.235218702666921</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1203722111517492</v>
+        <v>-0.1168275200905801</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06396274216289563</v>
+        <v>0.06269723078936987</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03973996136816847</v>
       </c>
       <c r="E95" t="n">
-        <v>1.20630711944687</v>
+        <v>1.205535850077432</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.02874541006259359</v>
+        <v>-0.02600819081065169</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02069767857570362</v>
+        <v>0.01937235447556844</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08241969367719065</v>
       </c>
       <c r="E96" t="n">
-        <v>1.117757525739857</v>
+        <v>1.117242821487192</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04951796868671921</v>
+        <v>0.0526974873117466</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02072420862044528</v>
+        <v>-0.02202907047200355</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1251282408050849</v>
       </c>
       <c r="E97" t="n">
-        <v>1.059279567345294</v>
+        <v>1.058119515252895</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09737287203162402</v>
+        <v>0.1005146141977402</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.00731356570696342</v>
+        <v>-0.008673518227767215</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1668337923298068</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9564268618830217</v>
+        <v>0.9555674474427915</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09626318855110703</v>
+        <v>0.09867773388318229</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06069957224411885</v>
+        <v>-0.06185490227915355</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2065279235196581</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8997511553823478</v>
+        <v>0.8992395991679251</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1110967447502447</v>
+        <v>0.1131350995123291</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05181108626613386</v>
+        <v>-0.05309548586911522</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2434898745845149</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8481044399742297</v>
+        <v>0.8476826028497211</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1047440035766751</v>
+        <v>0.1067193975739075</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06045402526119594</v>
+        <v>-0.06163296558305015</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2750250993670241</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7679742745470542</v>
+        <v>0.7678483530173502</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1001982363543588</v>
+        <v>0.1016006873914377</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05959933287832966</v>
+        <v>-0.06020060818266653</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3013981109898278</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7447260121254431</v>
+        <v>0.7450124836055199</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1014999501676744</v>
+        <v>0.1023703827417537</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06006839057647727</v>
+        <v>-0.0606067051159621</v>
       </c>
     </row>
   </sheetData>
